--- a/tut05/output/0501CS16.xlsx
+++ b/tut05/output/0501CS16.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.163265306122449</v>
+        <v>7.16</v>
       </c>
       <c r="C6" t="n">
-        <v>6.340909090909091</v>
+        <v>6.34</v>
       </c>
       <c r="D6" t="n">
-        <v>7.232558139534884</v>
+        <v>7.23</v>
       </c>
       <c r="E6" t="n">
-        <v>7.361702127659575</v>
+        <v>7.36</v>
       </c>
       <c r="F6" t="n">
         <v>7.5</v>
       </c>
       <c r="G6" t="n">
-        <v>7.725</v>
+        <v>7.72</v>
       </c>
       <c r="H6" t="n">
-        <v>7.951219512195122</v>
+        <v>7.95</v>
       </c>
       <c r="I6" t="n">
         <v>8.699999999999999</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.163265306122449</v>
+        <v>7.16</v>
       </c>
       <c r="C8" t="n">
-        <v>6.774193548387097</v>
+        <v>6.77</v>
       </c>
       <c r="D8" t="n">
-        <v>6.919117647058823</v>
+        <v>6.92</v>
       </c>
       <c r="E8" t="n">
-        <v>7.032786885245901</v>
+        <v>7.03</v>
       </c>
       <c r="F8" t="n">
         <v>7.12</v>
       </c>
       <c r="G8" t="n">
-        <v>7.211320754716981</v>
+        <v>7.21</v>
       </c>
       <c r="H8" t="n">
-        <v>7.310457516339869</v>
+        <v>7.31</v>
       </c>
       <c r="I8" t="n">
-        <v>7.471098265895954</v>
+        <v>7.47</v>
       </c>
     </row>
   </sheetData>
